--- a/Texts/Сюжетные сцены/Глава 19.xlsx
+++ b/Texts/Сюжетные сцены/Глава 19.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1579">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -2818,6 +2818,1944 @@
   </si>
   <si>
     <t xml:space="preserve"> ÃÂÀÀÀÀÀÀÀÀÀÀÀ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P44A/m25a0201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GWOH![K] GWWWOOOOHH![K]\nGWWWWWOOOOOOOHHHH!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We...[K]did it…</t>
+  </si>
+  <si>
+    <t>85, 89, 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Dusknoir[CR] is...[K]down…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve finally beaten [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wheh... It can\'t be…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wheeh...[K] Lord [CS:N]Dusknoir[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lord [CS:N]Dusknoir[CR]...[K]was defeated!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wheeeeh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humph.[K] Your [CS:N]Sableye[CR] ran off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You just have no luck attracting\nreliable allies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urgggh…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is it?</t>
+  </si>
+  <si>
+    <t>342, 346, 350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go to the top of the temple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Put the Relic Fragment in that\nhollow spot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want you to check if the\nRainbow Stoneship actually works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meanwhile, [hero] and I\nwill keep an eye on [CS:N]Dusknoir[CR] here.</t>
+  </si>
+  <si>
+    <t>364, 368</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK. I\'ll go do that.</t>
+  </si>
+  <si>
+    <t>393, 397, 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the Rainbow Stoneship works,\nwe can go to [CS:P]Temporal Tower[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope it activates…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t move!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urgghh...[K] [CS:N]Grovyle[CR]...\n[hero]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is this really…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is this what you really want?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If history is changed...[K]\nWe Pokémon of the future will disappear…</t>
+  </si>
+  <si>
+    <t>(Wh-what?)</t>
+  </si>
+  <si>
+    <t>(If history is changed...[K]Pokémon of the\nfuture will disappear?)</t>
+  </si>
+  <si>
+    <t>498, 501</t>
+  </si>
+  <si>
+    <t>508, 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It won\'t be just me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Both of you...[K] [CS:N]Grovyle[CR] and\n[hero] alike…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Since you come from a future\nthat will cease to exist, you will both\ndisappear too...[K] Is that what you really want?</t>
+  </si>
+  <si>
+    <t>(If we change history, we\'ll disappear too?!)</t>
+  </si>
+  <si>
+    <t>531, 535</t>
+  </si>
+  <si>
+    <t>(Is [CS:N]Dusknoir[CR]...)</t>
+  </si>
+  <si>
+    <t>541, 545</t>
+  </si>
+  <si>
+    <t>(Is [CS:N]Dusknoir[CR] telling...[K]the truth?)</t>
+  </si>
+  <si>
+    <t>551, 555</t>
+  </si>
+  <si>
+    <t>([CS:N]Grovyle[CR]!)</t>
+  </si>
+  <si>
+    <t>566, 570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]It\'s true, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we change history...[K]we will\ndisappear.</t>
+  </si>
+  <si>
+    <t>([CS:N]G-Grovyle[CR]!)</t>
+  </si>
+  <si>
+    <t>599, 603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]that doesn\'t matter…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If it means restoring time...[K]\nAnd bringing peace to the world!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s what I came to the past\nto do…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Celebi[CR] too...[K] She helped us,\nknowing that she will disappear if we succeed.</t>
+  </si>
+  <si>
+    <t>(Even [CS:N]Celebi[CR]?)</t>
+  </si>
+  <si>
+    <t>636, 640</t>
+  </si>
+  <si>
+    <t>(Oh![K] I recall, when we were in the future...)</t>
+  </si>
+  <si>
+    <t>646, 650</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГВОХ![K] ГВВООООХХ![K]\nГВВВВОООООООООХХХХ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас...[K] Получилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Даскнуар[CR]...[K] Повержен...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы наконец-то победили\n[CS:N]Даскнуара[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ухех... Невозможно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ухеех...[K] Повелитель [CS:N]Даскнуар[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Повелитель [CS:N]Даскнуар[CR]...[K] Повержен!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ухеееех!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха.[K] Твои [CS:N]Саблаи[CR] сбежали.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не везёт тебе на надёжных\nсоюзников.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Урхххх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иди на вершину храма.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Помести Фрагмент Реликвии в\nуглубление.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу, чтобы ты узнал,\nработает ли Радужный Камнерабль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу, чтобы ты узнала,\nработает ли Радужный Камнерабль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тем временем, [hero] и я\nприсмотрим за [CS:N]Даскнуаром[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо. Я пойду наверх.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если Радужный Камнерабль\nработает, мы сможем попасть на\n[CS:P]Темпоральную Башню[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоть бы работал...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не шевелись!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Урхххх...[K] [CS:N]Гровайл[CR]...\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы действительно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы действительно этого хотите?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если ход истории изменится...[K]\nМы, Покемоны будущего, исчезнем...</t>
+  </si>
+  <si>
+    <t>(Ч-что?)</t>
+  </si>
+  <si>
+    <t>(Если ход истории изменится...[K] Покемоны\nбудущего исчезнут?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не только я.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы оба...[K] Такие, как [CS:N]Гровайл[CR] и\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поскольку вы прибыли из\nбудущего, которое исчезнет, вы оба тоже\nисчезнете без следа...[K] Вам это надо?</t>
+  </si>
+  <si>
+    <t>(Если мы изменим историю, мы тоже\nисчезнем?!)</t>
+  </si>
+  <si>
+    <t>([CS:N]Даскнуар[CR]...)</t>
+  </si>
+  <si>
+    <t>([CS:N]Даскнуар[CR] говорит...[K] Правду?)</t>
+  </si>
+  <si>
+    <t>([CS:N]Гровайл[CR]!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Да, это правда,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Изменив ход истории...[K]\nМы исчезнем.</t>
+  </si>
+  <si>
+    <t>([CS:N]Г[CR]-[CS:N]Гровайл[CR]!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Это не имеет значения...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы сумеем восстановить\nвремя...[K] И принести покой в этот мир!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это то, ради чего я прибыл в\nпрошлое...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Селеби[CR] тоже...[K] Она помогла\nнам, зная, что если у нас всё получится,\nона тоже исчезнет.</t>
+  </si>
+  <si>
+    <t>(Даже [CS:N]Селеби[CR]?)</t>
+  </si>
+  <si>
+    <t>(Ох![K] Я помню, когда мы были в будущем...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÃÂÏÖ![K] ÃÂÂÏÏÏÏÖÖ![K]\nÃÂÂÂÂÏÏÏÏÏÏÏÏÏÖÖÖÖ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò...[K] Ðïìôœéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàòëîôàñ[CR]...[K] Ðïâåñçåî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îàëïîåø-óï ðïáåäéìé\n[CS:N]Äàòëîôàñà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôöåö... Îåâïèíïçîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôöååö...[K] Ðïâåìéóåìû [CS:N]Äàòëîôàñ[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïâåìéóåìû [CS:N]Äàòëîôàñ[CR]...[K] Ðïâåñçåî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôöååååö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà.[K] Óâïé [CS:N]Òàáìàé[CR] òáåçàìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå âåèæó óåáå îà îàäæçîúö\nòïýèîéëïâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñöööö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäé îà âåñšéîô öñàíà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïíåòóé Õñàãíåîó Ñåìéëâéé â\nôãìôáìåîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô, œóïáú óú ôèîàì,\nñàáïóàåó ìé Ñàäôçîúê Ëàíîåñàáìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô, œóïáú óú ôèîàìà,\nñàáïóàåó ìé Ñàäôçîúê Ëàíîåñàáìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåí âñåíåîåí, [hero] é ÿ\nðñéòíïóñéí èà [CS:N]Äàòëîôàñïí[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï. Ÿ ðïêäô îàâåñö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé Ñàäôçîúê Ëàíîåñàáìû\nñàáïóàåó, íú òíïçåí ðïðàòóû îà\n[CS:P]Óåíðïñàìûîôý Áàšîý[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóû áú ñàáïóàì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå šåâåìéòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñöööö...[K] [CS:N]Ãñïâàêì[CR]...\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äåêòóâéóåìûîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äåêòóâéóåìûîï üóïãï öïóéóå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé öïä éòóïñéé éèíåîéóòÿ...[K]\nÍú, Ðïëåíïîú áôäôþåãï, éòœåèîåí...</t>
+  </si>
+  <si>
+    <t>(Œ-œóï?)</t>
+  </si>
+  <si>
+    <t>(Åòìé öïä éòóïñéé éèíåîéóòÿ...[K] Ðïëåíïîú\náôäôþåãï éòœåèîôó?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå óïìûëï ÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ïáà...[K] Óàëéå, ëàë [CS:N]Ãñïâàêì[CR] é\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòëïìûëô âú ðñéáúìé éè\náôäôþåãï, ëïóïñïå éòœåèîåó, âú ïáà óïçå\néòœåèîåóå áåè òìåäà...[K] Âàí üóï îàäï?</t>
+  </si>
+  <si>
+    <t>(Åòìé íú éèíåîéí éòóïñéý, íú óïçå\néòœåèîåí?!)</t>
+  </si>
+  <si>
+    <t>([CS:N]Äàòëîôàñ[CR]...)</t>
+  </si>
+  <si>
+    <t>([CS:N]Äàòëîôàñ[CR] ãïâïñéó...[K] Ðñàâäô?)</t>
+  </si>
+  <si>
+    <t>([CS:N]Ãñïâàêì[CR]!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Äà, üóï ðñàâäà,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éèíåîéâ öïä éòóïñéé...[K]\nÍú éòœåèîåí.</t>
+  </si>
+  <si>
+    <t>([CS:N]Ã[CR]-[CS:N]Ãñïâàêì[CR]!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Üóï îå éíååó èîàœåîéÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú òôíååí âïòòóàîïâéóû\nâñåíÿ...[K] É ðñéîåòóé ðïëïê â üóïó íéñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óï, ñàäé œåãï ÿ ðñéáúì â\nðñïšìïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Òåìåáé[CR] óïçå...[K] Ïîà ðïíïãìà\nîàí, èîàÿ, œóï åòìé ô îàò âòæ ðïìôœéóòÿ,\nïîà óïçå éòœåèîåó.</t>
+  </si>
+  <si>
+    <t>(Äàçå [CS:N]Òåìåáé[CR]?)</t>
+  </si>
+  <si>
+    <t>(Ïö![K] Ÿ ðïíîý, ëïãäà íú áúìé â áôäôþåí...)</t>
+  </si>
+  <si>
+    <t>SCRIPT/P08P01A/m19d0612.ssb</t>
+  </si>
+  <si>
+    <t>Флешбек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Besides, if you would be so kind\nas to prevent the planet\'s paralysis…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кроме того, если ты будешь\nлюбезен предотвратить планетарный\nпаралич...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëñïíå óïãï, åòìé óú áôäåšû\nìýáåèåî ðñåäïóâñàóéóû ðìàîåóàñîúê\nðàñàìéœ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll finally be spared the agony\nof this world of darkness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> То агония этого тёмного мира\nнас наконец отпустит.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óï àãïîéÿ üóïãï óæíîïãï íéñà\nîàò îàëïîåø ïóðôòóéó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My dear [CS:N]Grovyle[CR], I will devote\nmy whole life to achieve that end!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мой дорогой [CS:N]Гровайл[CR], я посвящу\nвсю свою жизнь достижению этой цели!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïê äïñïãïê [CS:N]Ãñïâàêì[CR], ÿ ðïòâÿþô\nâòý òâïý çéèîû äïòóéçåîéý üóïê øåìé!</t>
+  </si>
+  <si>
+    <t>Селеби</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P44A/m25a0203.ssb</t>
+  </si>
+  <si>
+    <t>(When [CS:N]Celebi[CR] said that she would devote her\nwhole life...)</t>
+  </si>
+  <si>
+    <t>(So this is what she meant...)</t>
+  </si>
+  <si>
+    <t>27, 31</t>
+  </si>
+  <si>
+    <t>37, 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And, [hero]...[K] You came\nwith that same resolve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We came from the future fully\naccepting what would happen to us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]the way you are now, you\ndon\'t remember that resolve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know this is coming as a great\nshock to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]we have no choice in the\nmatter either way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we don\'t act, time will be\ndestroyed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The planet\'s paralysis will begin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To bring peace to this\nworld...[K]we have to disappear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Try to understand, [hero].</t>
+  </si>
+  <si>
+    <t>(...[K]So that\'s how it was...)</t>
+  </si>
+  <si>
+    <t>93, 97</t>
+  </si>
+  <si>
+    <t>(I came to this world...[K]with such a resolve...)</t>
+  </si>
+  <si>
+    <t>(Knowing that if we succeeded...[K]we would\ndisappear...)</t>
+  </si>
+  <si>
+    <t>113, 117</t>
+  </si>
+  <si>
+    <t>(But...)</t>
+  </si>
+  <si>
+    <t>123, 127</t>
+  </si>
+  <si>
+    <t>(If we don\'t act, the destruction of time can\'t\nbe stopped.)</t>
+  </si>
+  <si>
+    <t>135, 139</t>
+  </si>
+  <si>
+    <t>(That means...[K]we have to do it.)</t>
+  </si>
+  <si>
+    <t>145, 149</t>
+  </si>
+  <si>
+    <t>(Even if that means I must disappear.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [hero]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]there\'s just one thing…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One thing changed for us by\ncoming to this world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s true that we had the resolve\nto complete our mission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That was true when we first\ncame back to this world…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we had absolutely nothing to\nlose. And nothing to go back to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But, [hero]...[K]this changed\nfor you when you became a Pokémon…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You found a friend and partner\nin [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner] looks up to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If your partner found out that\nyou might disappear…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sure [partner] would be\ncrushed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner] has a good spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the future is altered and you\ndisappear…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your partner will...[K][partner]\nwill be…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left all alone.</t>
+  </si>
+  <si>
+    <t>(I finally understand.)</t>
+  </si>
+  <si>
+    <t>224, 228</t>
+  </si>
+  <si>
+    <t>238, 242</t>
+  </si>
+  <si>
+    <t>261, 265</t>
+  </si>
+  <si>
+    <t>275, 279</t>
+  </si>
+  <si>
+    <t>(If I change history...[K]I will disappear.)</t>
+  </si>
+  <si>
+    <t>301, 305</t>
+  </si>
+  <si>
+    <t>(If I disappear...[K] [partner] will be...)</t>
+  </si>
+  <si>
+    <t>311, 315</t>
+  </si>
+  <si>
+    <t>([partner]...)</t>
+  </si>
+  <si>
+    <t>328, 332</t>
+  </si>
+  <si>
+    <t>(Когда [CS:N]Селеби[CR] сказала, что она посвятит\nвсю свою жизнь...)</t>
+  </si>
+  <si>
+    <t>(Так вот что она имела в виду...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И, [hero]... Ты тоже\nрешился на это.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И, [hero]... Ты тоже\nрешилась на это.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы прибыли из будущего прекрасно\nосознавая, что случится с нами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Сейчас ты не помнишь\nсвоей решимости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знаю, что для тебя это большое\nпотрясение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] У нас в любом случае нет\nиного выбора.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы будем бездействовать,\nвремя будет уничтожено.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Начнётся планетарный паралич.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чтобы мир обрёл покой...[K] Нам\nпридётся исчезнуть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Попытайся понять это,\n[hero].</t>
+  </si>
+  <si>
+    <t>(...[K]Так вот оно что...)</t>
+  </si>
+  <si>
+    <t>(Я прибыл в этот мир...[K] С такой\nрешимостью...)</t>
+  </si>
+  <si>
+    <t>(Я прибыла в этот мир...[K] С такой\nрешимостью...)</t>
+  </si>
+  <si>
+    <t>(Зная, что если у нас всё получится...[K]\nМы исчезнем...)</t>
+  </si>
+  <si>
+    <t>(Но...)</t>
+  </si>
+  <si>
+    <t>(Если ничего не предпринять, разрушение\nвремени не удастся остановить.)</t>
+  </si>
+  <si>
+    <t>(Это значит...[K] Что мы должны это сделать.)</t>
+  </si>
+  <si>
+    <t>(Даже если я должен исчезнуть.)</t>
+  </si>
+  <si>
+    <t>(Даже если я должна исчезнуть.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох, [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Есть ещё кое-что...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прибыв в этот мир, для нас\nизменилась одна вещь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, это верно, что у нас была\nрешимость завершить нашу миссию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда мы впервые прибыли в этот\nмир, так всё и было...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но тогда, нам было абсолютно\nнечего терять. И не к чему вернуться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, [hero]...[K] Когда ты\nстал Покемоном, всё изменилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, [hero]...[K] Когда ты\nстала Покемоном, всё изменилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты обрёл друга и соратника по\nимени [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты обрела друга и соратника по\nимени [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner] уважает тебя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если твой спутник поймёт, что\nты можешь исчезнуть...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если твоя спутница поймёт, что\nты можешь исчезнуть...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверен, [partner] будет\nподавлен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверен, [partner] будет\nподавлена.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner] держится молодцом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если будущее изменится и ты\nисчезнешь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Твой спутник...[K] [partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Твоя спутница...[K] [partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...останется совсем один.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...останется совсем одна.</t>
+  </si>
+  <si>
+    <t>(Я наконец всё понял.)</t>
+  </si>
+  <si>
+    <t>(Я наконец всё поняла.)</t>
+  </si>
+  <si>
+    <t>(Если я изменю ход истории...[K] Я исчезну.)</t>
+  </si>
+  <si>
+    <t>(Если я исчезну...[K] [partner]...)</t>
+  </si>
+  <si>
+    <t>(Ëïãäà [CS:N]Òåìåáé[CR] òëàèàìà, œóï ïîà ðïòâÿóéó\nâòý òâïý çéèîû...)</t>
+  </si>
+  <si>
+    <t>(Óàë âïó œóï ïîà éíåìà â âéäô...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É, [hero]... Óú óïçå\nñåšéìòÿ îà üóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É, [hero]... Óú óïçå\nñåšéìàòû îà üóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðñéáúìé éè áôäôþåãï ðñåëñàòîï\nïòïèîàâàÿ, œóï òìôœéóòÿ ò îàíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Òåêœàò óú îå ðïíîéšû\nòâïåê ñåšéíïòóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàý, œóï äìÿ óåáÿ üóï áïìûšïå\nðïóñÿòåîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Ô îàò â ìýáïí òìôœàå îåó\néîïãï âúáïñà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú áôäåí áåèäåêòóâïâàóû,\nâñåíÿ áôäåó ôîéœóïçåîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàœîæóòÿ ðìàîåóàñîúê ðàñàìéœ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóïáú íéñ ïáñæì ðïëïê...[K] Îàí\nðñéäæóòÿ éòœåèîôóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïðúóàêòÿ ðïîÿóû üóï,\n[hero].</t>
+  </si>
+  <si>
+    <t>(...[K]Óàë âïó ïîï œóï...)</t>
+  </si>
+  <si>
+    <t>(Ÿ ðñéáúì â üóïó íéñ...[K] Ò óàëïê\nñåšéíïòóûý...)</t>
+  </si>
+  <si>
+    <t>(Ÿ ðñéáúìà â üóïó íéñ...[K] Ò óàëïê\nñåšéíïòóûý...)</t>
+  </si>
+  <si>
+    <t>(Èîàÿ, œóï åòìé ô îàò âòæ ðïìôœéóòÿ...[K]\nÍú éòœåèîåí...)</t>
+  </si>
+  <si>
+    <t>(Îï...)</t>
+  </si>
+  <si>
+    <t>(Åòìé îéœåãï îå ðñåäðñéîÿóû, ñàèñôšåîéå\nâñåíåîé îå ôäàòóòÿ ïòóàîïâéóû.)</t>
+  </si>
+  <si>
+    <t>(Üóï èîàœéó...[K] Œóï íú äïìçîú üóï òäåìàóû.)</t>
+  </si>
+  <si>
+    <t>(Äàçå åòìé ÿ äïìçåî éòœåèîôóû.)</t>
+  </si>
+  <si>
+    <t>(Äàçå åòìé ÿ äïìçîà éòœåèîôóû.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö, [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Åòóû åþæ ëïå-œóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéáúâ â üóïó íéñ, äìÿ îàò\néèíåîéìàòû ïäîà âåþû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, üóï âåñîï, œóï ô îàò áúìà\nñåšéíïòóû èàâåñšéóû îàšô íéòòéý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà íú âðåñâúå ðñéáúìé â üóïó\níéñ, óàë âòæ é áúìï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï óïãäà, îàí áúìï àáòïìýóîï\nîåœåãï óåñÿóû. É îå ë œåíô âåñîôóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, [hero]...[K] Ëïãäà óú\nòóàì Ðïëåíïîïí, âòæ éèíåîéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, [hero]...[K] Ëïãäà óú\nòóàìà Ðïëåíïîïí, âòæ éèíåîéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú ïáñæì äñôãà é òïñàóîéëà ðï\néíåîé [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú ïáñåìà äñôãà é òïñàóîéëà ðï\néíåîé [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner] ôâàçàåó óåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé óâïê òðôóîéë ðïêíæó, œóï\nóú íïçåšû éòœåèîôóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé óâïÿ òðôóîéøà ðïêíæó, œóï\nóú íïçåšû éòœåèîôóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåî, [partner] áôäåó\nðïäàâìåî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåî, [partner] áôäåó\nðïäàâìåîà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner] äåñçéóòÿ íïìïäøïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé áôäôþåå éèíåîéóòÿ é óú\néòœåèîåšû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óâïê òðôóîéë...[K] [partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óâïÿ òðôóîéøà...[K] [partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...ïòóàîåóòÿ òïâòåí ïäéî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...ïòóàîåóòÿ òïâòåí ïäîà.</t>
+  </si>
+  <si>
+    <t>(Ÿ îàëïîåø âòæ ðïîÿì.)</t>
+  </si>
+  <si>
+    <t>(Ÿ îàëïîåø âòæ ðïîÿìà.)</t>
+  </si>
+  <si>
+    <t>(Åòìé ÿ éèíåîý öïä éòóïñéé...[K] Ÿ éòœåèîô.)</t>
+  </si>
+  <si>
+    <t>(Åòìé ÿ éòœåèîô...[K] [partner]...)</t>
+  </si>
+  <si>
+    <t>Победа</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P33A/m25a0301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here it is.[K] It\'s this hollow spot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Relic Fragment is supposed\nto go into this spot.</t>
+  </si>
+  <si>
+    <t>54, 58, 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That will activate the Rainbow\nStoneship, [CS:N]Grovyle[CR] said...[K] It\'s worth a try.</t>
+  </si>
+  <si>
+    <t>[CN][partner] placed the Relic\n[CN]Fragment in the hollow spot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa! It moved![K] It moved!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот оно.[K] То самое\nуглубление.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фрагмент Реликвии нужно\nразместить здесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как сказал [CS:N]Гровайл[CR]... Это\nактивирует Радужный Камнерабль.[K] Нужно\nпопробовать.</t>
+  </si>
+  <si>
+    <t>[partner] помещает Фрагмент Реликвии\nв углубление.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ого! Он сдвинулся![K]\nСдвинулся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó ïîï.[K] Óï òàíïå\nôãìôáìåîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Õñàãíåîó Ñåìéëâéé îôçîï\nñàèíåòóéóû èäåòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë òëàèàì [CS:N]Ãñïâàêì[CR]... Üóï\nàëóéâéñôåó Ñàäôçîúê Ëàíîåñàáìû.[K] Îôçîï\nðïðñïáïâàóû.</t>
+  </si>
+  <si>
+    <t>[CN][partner] ðïíåþàåó Õñàãíåîó Ñåìéëâéé\n[CN]â ôãìôáìåîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïãï! Ïî òäâéîôìòÿ![K]\nÒäâéîôìòÿ!</t>
+  </si>
+  <si>
+    <t>Спутник активирует Радужный Камнерабль</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner]\'s done it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P44A/m25a0302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That noise...[K] It has to be the\nsound of the Rainbow Stoneship activating!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Gwoh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GWWWOOOOOHHHH!</t>
+  </si>
+  <si>
+    <t>(Gwah!)</t>
+  </si>
+  <si>
+    <t>149, 153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I won\'t...[K] You\'ll never change\nhistory!</t>
+  </si>
+  <si>
+    <t>(Waah!)</t>
+  </si>
+  <si>
+    <t>195, 199</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urrgggghhh!</t>
+  </si>
+  <si>
+    <t>266, 270</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So you shielded [hero],\n[CS:N]Grovyle[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s taken a heavy toll on you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Very well![K] You\'re going down\nfirst!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uwroh...[K] Wrooooooooh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wh-what are you doing?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urrggh...[K] [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m...[K] I\'m taking you with me…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re going back to the future!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wha…</t>
+  </si>
+  <si>
+    <t>(What?!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]![K] It\'s up to you\nnow!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gah! Those are...!</t>
+  </si>
+  <si>
+    <t>(Time Gears!)</t>
+  </si>
+  <si>
+    <t>461, 465</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, team![K] The Rainbow\nStoneship\'s set to go!</t>
+  </si>
+  <si>
+    <t>473, 477, 481</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wha...[K]what\'s happening?!</t>
+  </si>
+  <si>
+    <t>505, 509, 513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner]![K] This is it for me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m taking [CS:N]Dusknoir[CR]...[K]back to\nthe future!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?![K] Wh-what?!</t>
+  </si>
+  <si>
+    <t>532, 536, 540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can never come back here\nagain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watch [hero]\'s back...[K]\nPromise me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B-but...!</t>
+  </si>
+  <si>
+    <t>562, 566, 570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take your place, [CS:N]Grovyle[CR]...?[K]\nI can\'t!</t>
+  </si>
+  <si>
+    <t>576, 580, 584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You must and you will.[K] Because\nyou can, [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two are...[K]the greatest of\ncombinations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwoh! Unhand me![K] Release me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re almost there![K] Quiet!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take care, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was lucky to have known you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Though the parting hurts...[K]\nThe rest is in your hands!</t>
+  </si>
+  <si>
+    <t>644, 648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sorry for the holdup, [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwaaaaaaah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh... [CS:N]Grovyle[CR]...[K] Why...?</t>
+  </si>
+  <si>
+    <t>724, 728, 732</t>
+  </si>
+  <si>
+    <t>([CS:N]Grovyle[CR]...)</t>
+  </si>
+  <si>
+    <t>740, 744</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The sound of the Rainbow\nStoneship…</t>
+  </si>
+  <si>
+    <t>781, 785, 789</t>
+  </si>
+  <si>
+    <t>(It\'s getting louder!)</t>
+  </si>
+  <si>
+    <t>797, 801</t>
+  </si>
+  <si>
+    <t>(...[K]The Rainbow Stoneship...)</t>
+  </si>
+  <si>
+    <t>807, 811</t>
+  </si>
+  <si>
+    <t>(It looks like it\'s gonna move...)</t>
+  </si>
+  <si>
+    <t>817, 821</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...\n[CS:N]Grovyle[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[CS:N]Grovyle[CR]…</t>
+  </si>
+  <si>
+    <t>830, 834, 838</t>
+  </si>
+  <si>
+    <t>844, 848, 852</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Sigh…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]It\'s sad…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]So sad…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t even want...[K]\nwant to move…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m too sad...[K]\nto even move…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t want to go...[K]\nI\'m too upset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]But…</t>
+  </si>
+  <si>
+    <t>886, 890, 894</t>
+  </si>
+  <si>
+    <t>(Right...)</t>
+  </si>
+  <si>
+    <t>(If we don\'t hurry...)</t>
+  </si>
+  <si>
+    <t>903, 907</t>
+  </si>
+  <si>
+    <t>913, 917</t>
+  </si>
+  <si>
+    <t>(If we don\'t hurry, the Rainbow Stoneship\nmight just leave without us...)</t>
+  </si>
+  <si>
+    <t>923, 927</t>
+  </si>
+  <si>
+    <t>(...[K][CS:N]Grovyle[CR]...)</t>
+  </si>
+  <si>
+    <t>933, 937</t>
+  </si>
+  <si>
+    <t>(Even though I\'m sad...[K] I have to do this...)</t>
+  </si>
+  <si>
+    <t>(I may be sad...[K] But right now...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We gotta go…</t>
+  </si>
+  <si>
+    <t>970, 974, 978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]The Time Gears…</t>
+  </si>
+  <si>
+    <t>984, 988, 992</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Time Gears...[K] I\'d better\ngather them up.</t>
+  </si>
+  <si>
+    <t>998, 1002, 1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wait for us in the future,\n[CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll stop the planet\'s\nparalysis…</t>
+  </si>
+  <si>
+    <t>1025, 1029, 1033</t>
+  </si>
+  <si>
+    <t>1039, 1043, 1047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll change the future into a\nbetter world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A world in which [CS:N]Grovyle[CR] can\nlive happily![K] We won\'t fail!</t>
+  </si>
+  <si>
+    <t>1053, 1057, 1061</t>
+  </si>
+  <si>
+    <t>1067, 1071, 1075</t>
+  </si>
+  <si>
+    <t>(What [CS:N]Dusknoir[CR] said...)</t>
+  </si>
+  <si>
+    <t>1091, 1095</t>
+  </si>
+  <si>
+    <t>1101, 1105</t>
+  </si>
+  <si>
+    <t>(+5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner]! Всё получилось!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этот шум...[K] Должно быть,\nактивировался Радужный Камнерабль!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Гвох!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГВВВООООООХХХ!</t>
+  </si>
+  <si>
+    <t>(Ах!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не...[K] Вы никогда не измените\nход истории!</t>
+  </si>
+  <si>
+    <t>(Аааа!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уррррххх!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Значит, заслонил его, [CS:N]Гровайл[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Значит, заслонил её, [CS:N]Гровайл[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты на себя много взял!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так и быть![K] Ты ляжешь первым!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Урррх...[K] Ррррррраааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ч-что ты творишь?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Урррх...[K] [CS:N]Даскнуар[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я...[K] Я заберу тебя с собой...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы возвращаемся в будущее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чт...</t>
+  </si>
+  <si>
+    <t>(Что?!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]![K] Теперь всё\nзависит только от тебя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ах! Это же!..</t>
+  </si>
+  <si>
+    <t>(Шестерни Времени!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Итак, команда![K] Радужный\nКамнерабль готов к отправлению!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чт...[K] Что происходит?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner]![K]\nМой путь окончен!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я забираю [CS:N]Даскнуара[CR]...[K] Назад в\nбудущее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А?![K] Ч-что?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уже сюда не вернусь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]... Защити его...[K]\nОбещай мне!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]... Защити её...[K]\nОбещай мне!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Н-но!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты видел меня, [CS:N]Гровайл[CR]?..[K]\nЯ не смогу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты сможешь и сделаешь это.[K]\nПотому что всё в твоих силах, [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы двое...[K]\nСамое лучшее сочетание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гвох! Отцепись от меня![K]\nВыпусти!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти дошли![K] Умолкни!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Береги себя, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне повезло, что я познакомился\nс тобой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоть нам больно расставаться...[K]\nНо всё в твоих руках!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Извини за задержку, [CS:N]Даскнуар[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гввааааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух... [CS:N]Гровайл[CR]...[K] Почему?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Звуки Радужного\nКамнерабля...</t>
+  </si>
+  <si>
+    <t>(Они усиливаются!)</t>
+  </si>
+  <si>
+    <t>(...[K]Радужный Камнерабль...)</t>
+  </si>
+  <si>
+    <t>(Похоже, он скоро отправится в путь...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но... [CS:N]Гровайл[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[CS:N]Гровайл[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Эх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Как же грустно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Как печально...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я даже не хочу...[K]\nНе хочу куда-либо идти...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне так грустно...[K]\nДаже сдвинуться с места не могу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не хочу идти...[K]\nЯ слишком расстроена.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Но...</t>
+  </si>
+  <si>
+    <t>(Верно...)</t>
+  </si>
+  <si>
+    <t>(Если мы не поспешим...)</t>
+  </si>
+  <si>
+    <t>(Если мы не поспешим, Радужный Камнерабль\nможет улететь без нас...)</t>
+  </si>
+  <si>
+    <t>(...[K][CS:N]Гровайл[CR]...)</t>
+  </si>
+  <si>
+    <t>(Хоть я и опечален...[K] Но теперь...)</t>
+  </si>
+  <si>
+    <t>(Хоть я и опечалена...[K] Я сделаю это...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно идти...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Шестерни Времени...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шестерни...[K] Я соберу их.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жди нас в будущем, [CS:N]Гровайл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы остановим планетарный\nпаралич...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы изменим будущее к\nлучшему миру.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Миру, в котором [CS:N]Гровайл[CR]\nсможет жить счастливо![K] Мы не подведём\nтебя!</t>
+  </si>
+  <si>
+    <t>([CS:N]Даскнуар[CR] сказал...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóïó šôí...[K] Äïìçîï áúóû,\nàëóéâéñïâàìòÿ Ñàäôçîúê Ëàíîåñàáìû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ãâïö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÃÂÂÂÏÏÏÏÏÏÖÖÖ!</t>
+  </si>
+  <si>
+    <t>(Àö!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå...[K] Âú îéëïãäà îå éèíåîéóå\nöïä éòóïñéé!</t>
+  </si>
+  <si>
+    <t>(Àààà!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôññññööö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàœéó, èàòìïîéì åãï, [CS:N]Ãñïâàêì[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàœéó, èàòìïîéì åæ, [CS:N]Ãñïâàêì[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú îà òåáÿ íîïãï âèÿì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë é áúóû![K] Óú ìÿçåšû ðåñâúí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñññö...[K] Ñññññññàààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œ-œóï óú óâïñéšû?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñññö...[K] [CS:N]Äàòëîôàñ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ...[K] Ÿ èàáåñô óåáÿ ò òïáïê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú âïèâñàþàåíòÿ â áôäôþåå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œó...</t>
+  </si>
+  <si>
+    <t>(Œóï?!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]![K] Óåðåñû âòæ\nèàâéòéó óïìûëï ïó óåáÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àö! Üóï çå!..</t>
+  </si>
+  <si>
+    <t>(Šåòóåñîé Âñåíåîé!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éóàë, ëïíàîäà![K] Ñàäôçîúê\nËàíîåñàáìû ãïóïâ ë ïóðñàâìåîéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œó...[K] Œóï ðñïéòöïäéó?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner]![K]\nÍïê ðôóû ïëïîœåî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èàáéñàý [CS:N]Äàòëîôàñà[CR]...[K] Îàèàä â\náôäôþåå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À?![K] Œ-œóï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôçå òýäà îå âåñîôòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]... Èàþéóé åãï...[K]\nÏáåþàê íîå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]... Èàþéóé åæ...[K]\nÏáåþàê íîå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Î-îï!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú âéäåì íåîÿ, [CS:N]Ãñïâàêì[CR]?..[K]\nŸ îå òíïãô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú òíïçåšû é òäåìàåšû üóï.[K]\nÐïóïíô œóï âòæ â óâïéö òéìàö, [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äâïå...[K]\nÒàíïå ìôœšåå òïœåóàîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãâïö! Ïóøåðéòû ïó íåîÿ![K]\nÂúðôòóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé äïšìé![K] Ôíïìëîé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áåñåãé òåáÿ, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ðïâåèìï, œóï ÿ ðïèîàëïíéìòÿ\nò óïáïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóû îàí áïìûîï ñàòòóàâàóûòÿ...[K]\nÎï âòæ â óâïéö ñôëàö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éèâéîé èà èàäåñçëô, [CS:N]Äàòëîôàñ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãââààààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö... [CS:N]Ãñïâàêì[CR]...[K] Ðïœåíô?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èâôëé Ñàäôçîïãï\nËàíîåñàáìÿ...</t>
+  </si>
+  <si>
+    <t>(Ïîé ôòéìéâàýóòÿ!)</t>
+  </si>
+  <si>
+    <t>(...[K]Ñàäôçîúê Ëàíîåñàáìû...)</t>
+  </si>
+  <si>
+    <t>(Ðïöïçå, ïî òëïñï ïóðñàâéóòÿ â ðôóû...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï... [CS:N]Ãñïâàêì[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[CS:N]Ãñïâàêì[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Üö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ëàë çå ãñôòóîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ëàë ðåœàìûîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äàçå îå öïœô...[K]\nÎå öïœô ëôäà-ìéáï éäóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå óàë ãñôòóîï...[K]\nÄàçå òäâéîôóûòÿ ò íåòóà îå íïãô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå öïœô éäóé...[K]\nŸ òìéšëïí ñàòòóñïåîà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Îï...</t>
+  </si>
+  <si>
+    <t>(Âåñîï...)</t>
+  </si>
+  <si>
+    <t>(Åòìé íú îå ðïòðåšéí...)</t>
+  </si>
+  <si>
+    <t>(Åòìé íú îå ðïòðåšéí, Ñàäôçîúê Ëàíîåñàáìû\níïçåó ôìåóåóû áåè îàò...)</t>
+  </si>
+  <si>
+    <t>(...[K][CS:N]Ãñïâàêì[CR]...)</t>
+  </si>
+  <si>
+    <t>(Öïóû ÿ é ïðåœàìåî...[K] Îï óåðåñû...)</t>
+  </si>
+  <si>
+    <t>(Öïóû ÿ é ïðåœàìåîà...[K] Ÿ òäåìàý üóï...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï éäóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Šåòóåñîé Âñåíåîé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Šåòóåñîé...[K] Ÿ òïáåñô éö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çäé îàò â áôäôþåí, [CS:N]Ãñïâàêì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïòóàîïâéí ðìàîåóàñîúê\nðàñàìéœ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú éèíåîéí áôäôþåå ë\nìôœšåíô íéñô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íéñô, â ëïóïñïí [CS:N]Ãñïâàêì[CR]\nòíïçåó çéóû òœàòóìéâï![K] Íú îå ðïäâåäæí\nóåáÿ!</t>
+  </si>
+  <si>
+    <t>([CS:N]Äàòëîôàñ[CR] òëàèàì...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [partner]! Âòæ ðïìôœéìïòû!</t>
+  </si>
+  <si>
+    <t>([CS:N]Гровайл[CR]...)</t>
+  </si>
+  <si>
+    <t>([CS:N]Ãñïâàêì[CR]...)</t>
+  </si>
+  <si>
+    <t>(Wh-what was that...?)</t>
+  </si>
+  <si>
+    <t>(Ч-что это было?..)</t>
+  </si>
+  <si>
+    <t>(Œ-œóï üóï áúìï?..)</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P44A/m25d0212.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P44A/m25a0304.ssb</t>
+  </si>
+  <si>
+    <t>(That\'s right...)</t>
+  </si>
+  <si>
+    <t>23, 27</t>
+  </si>
+  <si>
+    <t>(If the future is changed, [CS:N]Grovyle[CR] will\ndisappear...)</t>
+  </si>
+  <si>
+    <t>(And...[K]I will disappear too...)</t>
+  </si>
+  <si>
+    <t>33, 37</t>
+  </si>
+  <si>
+    <t>43, 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The last thing [CS:N]Grovyle[CR] said to\nyou, [hero]…</t>
+  </si>
+  <si>
+    <t>86, 90, 94</t>
+  </si>
+  <si>
+    <t>(Всё так и есть...)</t>
+  </si>
+  <si>
+    <t>(Если будущее изменится, [CS:N]Гровайл[CR]\nисчезнет...)</t>
+  </si>
+  <si>
+    <t>(И...[K] Я тоже исчезну...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Послушай, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Последнее, что [CS:N]Гровайл[CR] тебе\nсказал, [hero]...</t>
+  </si>
+  <si>
+    <t>(Âòæ óàë é åòóû...)</t>
+  </si>
+  <si>
+    <t>(Åòìé áôäôþåå éèíåîéóòÿ, [CS:N]Ãñïâàêì[CR]\néòœåèîåó...)</t>
+  </si>
+  <si>
+    <t>(É...[K] Ÿ óïçå éòœåèîô...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìôšàê, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìåäîåå, œóï [CS:N]Ãñïâàêì[CR] óåáå\nòëàèàì, [hero]...</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P44A/m25d0322.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> His last words...[K] Parting hurts…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P44A/m25a0306.ssb</t>
+  </si>
+  <si>
+    <t>19, 23, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I understand that feeling.\nI understand how it hurts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Grovyle[CR] was partners with\nyou for a long time, [hero].</t>
+  </si>
+  <si>
+    <t>47, 51, 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think it must have hurt\n[CS:N]Grovyle[CR] terribly to leave you.</t>
+  </si>
+  <si>
+    <t>61, 65, 69</t>
+  </si>
+  <si>
+    <t>(That may be what he meant...)</t>
+  </si>
+  <si>
+    <t>(But no. That isn\'t it.)</t>
+  </si>
+  <si>
+    <t>([CS:N]Grovyle[CR]\'s last words...)</t>
+  </si>
+  <si>
+    <t>97, 101</t>
+  </si>
+  <si>
+    <t>107, 111</t>
+  </si>
+  <si>
+    <t>(They weren\'t about me and [CS:N]Grovyle[CR].)</t>
+  </si>
+  <si>
+    <t>117, 121</t>
+  </si>
+  <si>
+    <t>(He meant me and [partner].)</t>
+  </si>
+  <si>
+    <t>([CS:N]Grovyle[CR] said what he did...[K]because he knew\nthat I would have to leave [partner]\neventually.)</t>
+  </si>
+  <si>
+    <t>127, 131</t>
+  </si>
+  <si>
+    <t>141, 145</t>
+  </si>
+  <si>
+    <t>(When history is changed...[K]I will disappear.)</t>
+  </si>
+  <si>
+    <t>155, 159</t>
+  </si>
+  <si>
+    <t>(My time together with [partner] is\nending...)</t>
+  </si>
+  <si>
+    <t>165, 169</t>
+  </si>
+  <si>
+    <t>(This is our last adventure.)</t>
+  </si>
+  <si>
+    <t>179, 183</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to do this for [CS:N]Grovyle[CR]\'s\nsake! Let\'s go to [CS:P]Temporal Tower[CR]!</t>
+  </si>
+  <si>
+    <t>221, 225, 229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Его последние слова...[K]\nБольно расставаться...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я понимаю это чувство.\nЯ понимаю как это больно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Гровайл[CR] долгое время дружил\nс тобой, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверен, что [CS:N]Гровайлу[CR]\nужасно больно покидать тебя.</t>
+  </si>
+  <si>
+    <t>(Возможно, он это имел в виду...)</t>
+  </si>
+  <si>
+    <t>(Но нет. Это вовсе не так.)</t>
+  </si>
+  <si>
+    <t>(Последние слова [CS:N]Гровайла[CR]...)</t>
+  </si>
+  <si>
+    <t>(Они не обо мне и [CS:N]Гровайле[CR].)</t>
+  </si>
+  <si>
+    <t>(Он имел в виду меня и моего друга.)</t>
+  </si>
+  <si>
+    <t>(Он имел в виду меня и мою подругу.)</t>
+  </si>
+  <si>
+    <t>([CS:N]Гровайл[CR] так сказал...[K] Потому что он знал,\nчто [partner] останется в одиночестве.)</t>
+  </si>
+  <si>
+    <t>(Когда ход истории изменится...[K] Я исчезну\nбез следа.)</t>
+  </si>
+  <si>
+    <t>([partner]... Моё время с тобой\nна исходе...)</t>
+  </si>
+  <si>
+    <t>(Это наше последнее приключение.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Послушай, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны справиться ради\n[CS:N]Гровайла[CR]! Отправимся в [CS:P]Темпоральную Башню[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åãï ðïòìåäîéå òìïâà...[K]\nÁïìûîï ñàòòóàâàóûòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïîéíàý üóï œôâòóâï.\nŸ ðïîéíàý ëàë üóï áïìûîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ãñïâàêì[CR] äïìãïå âñåíÿ äñôçéì\nò óïáïê, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåî, œóï [CS:N]Ãñïâàêìô[CR]\nôçàòîï áïìûîï ðïëéäàóû óåáÿ.</t>
+  </si>
+  <si>
+    <t>(Âïèíïçîï, ïî üóï éíåì â âéäô...)</t>
+  </si>
+  <si>
+    <t>(Îï îåó. Üóï âïâòå îå óàë.)</t>
+  </si>
+  <si>
+    <t>(Ðïòìåäîéå òìïâà [CS:N]Ãñïâàêìà[CR]...)</t>
+  </si>
+  <si>
+    <t>(Ïîé îå ïáï íîå é [CS:N]Ãñïâàêìå[CR].)</t>
+  </si>
+  <si>
+    <t>(Ïî éíåì â âéäô íåîÿ é íïåãï äñôãà.)</t>
+  </si>
+  <si>
+    <t>(Ïî éíåì â âéäô íåîÿ é íïý ðïäñôãô.)</t>
+  </si>
+  <si>
+    <t>([CS:N]Ãñïâàêì[CR] óàë òëàèàì...[K] Ðïóïíô œóï ïî èîàì,\nœóï [partner] ïòóàîåóòÿ â ïäéîïœåòóâå.)</t>
+  </si>
+  <si>
+    <t>(Ëïãäà öïä éòóïñéé éèíåîéóòÿ...[K] Ÿ éòœåèîô\náåè òìåäà.)</t>
+  </si>
+  <si>
+    <t>([partner]... Íïæ âñåíÿ ò óïáïê\nîà éòöïäå...)</t>
+  </si>
+  <si>
+    <t>(Üóï îàšå ðïòìåäîåå ðñéëìýœåîéå.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìôšàê, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú òðñàâéóûòÿ ñàäé\n[CS:N]Ãñïâàêìà[CR]! Ïóðñàâéíòÿ â [CS:P]Óåíðïñàìûîôý Áàšîý[CR]!</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +4855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3073,11 +5011,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFC5F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFC5F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFC5F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3217,9 +5207,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3245,6 +5232,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3527,10 +5550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5813,7 +7836,7 @@
       <c r="B132" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="C132" s="48">
+      <c r="C132" s="47">
         <v>23</v>
       </c>
       <c r="D132" s="23" t="s">
@@ -5829,7 +7852,7 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="31"/>
       <c r="B133" s="32"/>
-      <c r="C133" s="49">
+      <c r="C133" s="48">
         <v>27</v>
       </c>
       <c r="D133" s="27" t="s">
@@ -5843,7 +7866,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="50"/>
+      <c r="A134" s="49"/>
       <c r="B134" s="26"/>
       <c r="C134" s="26">
         <v>32</v>
@@ -5891,7 +7914,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="50"/>
+      <c r="A137" s="49"/>
       <c r="B137" s="26"/>
       <c r="C137" s="26">
         <v>104</v>
@@ -5939,7 +7962,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="51" t="s">
+      <c r="A140" s="50" t="s">
         <v>480</v>
       </c>
       <c r="B140" s="32" t="s">
@@ -5975,7 +7998,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="51" t="s">
+      <c r="A142" s="50" t="s">
         <v>490</v>
       </c>
       <c r="B142" s="32" t="s">
@@ -6079,7 +8102,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="51" t="s">
         <v>523</v>
       </c>
       <c r="B148" s="26" t="s">
@@ -6097,7 +8120,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="50"/>
+      <c r="A149" s="49"/>
       <c r="B149" s="26"/>
       <c r="C149" s="26"/>
       <c r="D149" s="27" t="s">
@@ -6111,7 +8134,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="53"/>
+      <c r="A150" s="52"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
       <c r="D150" s="20" t="s">
@@ -6125,7 +8148,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="51" t="s">
+      <c r="A151" s="50" t="s">
         <v>490</v>
       </c>
       <c r="B151" s="32" t="s">
@@ -6467,8 +8490,8 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="55"/>
-      <c r="B171" s="49"/>
+      <c r="A171" s="54"/>
+      <c r="B171" s="48"/>
       <c r="C171" s="26" t="s">
         <v>590</v>
       </c>
@@ -6486,7 +8509,7 @@
       <c r="A172" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B172" s="54"/>
+      <c r="B172" s="53"/>
       <c r="C172" s="26">
         <v>209</v>
       </c>
@@ -6501,8 +8524,8 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="55"/>
-      <c r="B173" s="49"/>
+      <c r="A173" s="54"/>
+      <c r="B173" s="48"/>
       <c r="C173" s="26" t="s">
         <v>594</v>
       </c>
@@ -6517,8 +8540,8 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="55"/>
-      <c r="B174" s="49"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="48"/>
       <c r="C174" s="26" t="s">
         <v>595</v>
       </c>
@@ -6533,8 +8556,8 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="55"/>
-      <c r="B175" s="49"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="48"/>
       <c r="C175" s="26" t="s">
         <v>597</v>
       </c>
@@ -7189,7 +9212,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="51" t="s">
+      <c r="A214" s="50" t="s">
         <v>740</v>
       </c>
       <c r="B214" s="32"/>
@@ -7293,8 +9316,8 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="55"/>
-      <c r="B220" s="49"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="48"/>
       <c r="C220" s="26" t="s">
         <v>748</v>
       </c>
@@ -7481,7 +9504,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A231" s="56" t="s">
+      <c r="A231" s="55" t="s">
         <v>490</v>
       </c>
       <c r="B231" s="26" t="s">
@@ -7633,7 +9656,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A240" s="56" t="s">
+      <c r="A240" s="55" t="s">
         <v>816</v>
       </c>
       <c r="B240" s="26" t="s">
@@ -7755,52 +9778,54 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A247" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="B247" s="13" t="s">
+      <c r="A247" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B247" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="C247" s="13">
+      <c r="C247" s="22">
         <v>19</v>
       </c>
-      <c r="D247" s="14" t="s">
+      <c r="D247" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="E247" s="14" t="s">
+      <c r="E247" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="F247" s="14" t="s">
+      <c r="F247" s="24" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="47"/>
-      <c r="C248" s="13">
+      <c r="A248" s="25"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="26">
         <v>22</v>
       </c>
-      <c r="D248" s="14" t="s">
+      <c r="D248" s="27" t="s">
         <v>837</v>
       </c>
-      <c r="E248" s="14" t="s">
+      <c r="E248" s="27" t="s">
         <v>876</v>
       </c>
-      <c r="F248" s="14" t="s">
+      <c r="F248" s="28" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="47"/>
-      <c r="C249" s="13">
+      <c r="A249" s="25"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="26">
         <v>59</v>
       </c>
-      <c r="D249" s="14" t="s">
+      <c r="D249" s="27" t="s">
         <v>839</v>
       </c>
-      <c r="E249" s="14" t="s">
+      <c r="E249" s="27" t="s">
         <v>877</v>
       </c>
-      <c r="F249" s="14" t="s">
+      <c r="F249" s="28" t="s">
         <v>906</v>
       </c>
     </row>
@@ -7808,32 +9833,33 @@
       <c r="A250" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C250" s="13">
+      <c r="B250" s="26"/>
+      <c r="C250" s="26">
         <v>127</v>
       </c>
-      <c r="D250" s="14" t="s">
+      <c r="D250" s="27" t="s">
         <v>840</v>
       </c>
-      <c r="E250" s="14" t="s">
+      <c r="E250" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="F250" s="14" t="s">
+      <c r="F250" s="28" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="31"/>
       <c r="B251" s="32"/>
-      <c r="C251" s="13" t="s">
+      <c r="C251" s="26" t="s">
         <v>842</v>
       </c>
-      <c r="D251" s="14" t="s">
+      <c r="D251" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="E251" s="14" t="s">
+      <c r="E251" s="27" t="s">
         <v>879</v>
       </c>
-      <c r="F251" s="14" t="s">
+      <c r="F251" s="28" t="s">
         <v>908</v>
       </c>
     </row>
@@ -7841,77 +9867,81 @@
       <c r="A252" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="C252" s="13">
+      <c r="B252" s="26"/>
+      <c r="C252" s="26">
         <v>191</v>
       </c>
-      <c r="D252" s="14" t="s">
+      <c r="D252" s="27" t="s">
         <v>843</v>
       </c>
-      <c r="E252" s="14" t="s">
+      <c r="E252" s="27" t="s">
         <v>880</v>
       </c>
-      <c r="F252" s="14" t="s">
+      <c r="F252" s="28" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="47"/>
-      <c r="C253" s="13">
+      <c r="A253" s="25"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26">
         <v>194</v>
       </c>
-      <c r="D253" s="14" t="s">
+      <c r="D253" s="27" t="s">
         <v>844</v>
       </c>
-      <c r="E253" s="14" t="s">
+      <c r="E253" s="27" t="s">
         <v>881</v>
       </c>
-      <c r="F253" s="14" t="s">
+      <c r="F253" s="28" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="47"/>
-      <c r="C254" s="13">
+      <c r="A254" s="25"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="26">
         <v>196</v>
       </c>
-      <c r="D254" s="14" t="s">
+      <c r="D254" s="27" t="s">
         <v>845</v>
       </c>
-      <c r="E254" s="14" t="s">
+      <c r="E254" s="27" t="s">
         <v>882</v>
       </c>
-      <c r="F254" s="14" t="s">
+      <c r="F254" s="28" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="47"/>
-      <c r="C255" s="13">
+      <c r="A255" s="25"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="26">
         <v>200</v>
       </c>
-      <c r="D255" s="14" t="s">
+      <c r="D255" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="E255" s="14" t="s">
+      <c r="E255" s="27" t="s">
         <v>883</v>
       </c>
-      <c r="F255" s="14" t="s">
+      <c r="F255" s="28" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A256" s="31"/>
       <c r="B256" s="32"/>
-      <c r="C256" s="13" t="s">
+      <c r="C256" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D256" s="14" t="s">
+      <c r="D256" s="27" t="s">
         <v>847</v>
       </c>
-      <c r="E256" s="14" t="s">
+      <c r="E256" s="27" t="s">
         <v>884</v>
       </c>
-      <c r="F256" s="14" t="s">
+      <c r="F256" s="28" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7919,32 +9949,33 @@
       <c r="A257" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C257" s="13">
+      <c r="B257" s="26"/>
+      <c r="C257" s="26">
         <v>221</v>
       </c>
-      <c r="D257" s="14" t="s">
+      <c r="D257" s="27" t="s">
         <v>849</v>
       </c>
-      <c r="E257" s="14" t="s">
+      <c r="E257" s="27" t="s">
         <v>885</v>
       </c>
-      <c r="F257" s="14" t="s">
+      <c r="F257" s="28" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="31"/>
       <c r="B258" s="32"/>
-      <c r="C258" s="13" t="s">
+      <c r="C258" s="26" t="s">
         <v>851</v>
       </c>
-      <c r="D258" s="14" t="s">
+      <c r="D258" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="E258" s="14" t="s">
+      <c r="E258" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="F258" s="14" t="s">
+      <c r="F258" s="28" t="s">
         <v>915</v>
       </c>
     </row>
@@ -7952,62 +9983,65 @@
       <c r="A259" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="C259" s="13">
+      <c r="B259" s="26"/>
+      <c r="C259" s="26">
         <v>246</v>
       </c>
-      <c r="D259" s="14" t="s">
+      <c r="D259" s="27" t="s">
         <v>852</v>
       </c>
-      <c r="E259" s="14" t="s">
+      <c r="E259" s="27" t="s">
         <v>887</v>
       </c>
-      <c r="F259" s="14" t="s">
+      <c r="F259" s="28" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="47"/>
-      <c r="C260" s="13">
+      <c r="A260" s="25"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="26">
         <v>249</v>
       </c>
-      <c r="D260" s="14" t="s">
+      <c r="D260" s="27" t="s">
         <v>853</v>
       </c>
-      <c r="E260" s="14" t="s">
+      <c r="E260" s="27" t="s">
         <v>888</v>
       </c>
-      <c r="F260" s="14" t="s">
+      <c r="F260" s="28" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="47"/>
-      <c r="C261" s="13">
+      <c r="A261" s="25"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="26">
         <v>261</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D261" s="27" t="s">
         <v>854</v>
       </c>
-      <c r="E261" s="14" t="s">
+      <c r="E261" s="27" t="s">
         <v>889</v>
       </c>
-      <c r="F261" s="14" t="s">
+      <c r="F261" s="28" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A262" s="31"/>
       <c r="B262" s="32"/>
-      <c r="C262" s="13" t="s">
+      <c r="C262" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="D262" s="14" t="s">
+      <c r="D262" s="27" t="s">
         <v>855</v>
       </c>
-      <c r="E262" s="14" t="s">
+      <c r="E262" s="27" t="s">
         <v>890</v>
       </c>
-      <c r="F262" s="14" t="s">
+      <c r="F262" s="28" t="s">
         <v>919</v>
       </c>
     </row>
@@ -8015,80 +10049,81 @@
       <c r="A263" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C263" s="13">
+      <c r="B263" s="26"/>
+      <c r="C263" s="26">
         <v>299</v>
       </c>
-      <c r="D263" s="14" t="s">
+      <c r="D263" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="E263" s="14" t="s">
+      <c r="E263" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="F263" s="14" t="s">
+      <c r="F263" s="28" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A264" s="55"/>
-      <c r="B264" s="49"/>
-      <c r="C264" s="13" t="s">
+      <c r="A264" s="54"/>
+      <c r="B264" s="48"/>
+      <c r="C264" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="D264" s="14" t="s">
+      <c r="D264" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="E264" s="14" t="s">
+      <c r="E264" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="F264" s="14" t="s">
+      <c r="F264" s="28" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="55"/>
-      <c r="B265" s="49"/>
-      <c r="C265" s="13" t="s">
+      <c r="A265" s="54"/>
+      <c r="B265" s="48"/>
+      <c r="C265" s="26" t="s">
         <v>862</v>
       </c>
-      <c r="D265" s="14" t="s">
+      <c r="D265" s="27" t="s">
         <v>858</v>
       </c>
-      <c r="E265" s="14" t="s">
+      <c r="E265" s="27" t="s">
         <v>893</v>
       </c>
-      <c r="F265" s="14" t="s">
+      <c r="F265" s="28" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A266" s="55"/>
-      <c r="B266" s="49"/>
-      <c r="C266" s="13" t="s">
+      <c r="A266" s="54"/>
+      <c r="B266" s="48"/>
+      <c r="C266" s="26" t="s">
         <v>863</v>
       </c>
-      <c r="D266" s="14" t="s">
+      <c r="D266" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="E266" s="14" t="s">
+      <c r="E266" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="F266" s="14" t="s">
+      <c r="F266" s="28" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="55"/>
-      <c r="B267" s="49"/>
-      <c r="C267" s="13" t="s">
+      <c r="A267" s="54"/>
+      <c r="B267" s="48"/>
+      <c r="C267" s="26" t="s">
         <v>864</v>
       </c>
-      <c r="D267" s="14" t="s">
+      <c r="D267" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="E267" s="14" t="s">
+      <c r="E267" s="27" t="s">
         <v>895</v>
       </c>
-      <c r="F267" s="14" t="s">
+      <c r="F267" s="28" t="s">
         <v>924</v>
       </c>
     </row>
@@ -8096,32 +10131,33 @@
       <c r="A268" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C268" s="13">
+      <c r="B268" s="26"/>
+      <c r="C268" s="26">
         <v>393</v>
       </c>
-      <c r="D268" s="14" t="s">
+      <c r="D268" s="27" t="s">
         <v>865</v>
       </c>
-      <c r="E268" s="14" t="s">
+      <c r="E268" s="27" t="s">
         <v>896</v>
       </c>
-      <c r="F268" s="14" t="s">
+      <c r="F268" s="28" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="31"/>
       <c r="B269" s="32"/>
-      <c r="C269" s="13" t="s">
+      <c r="C269" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="D269" s="14" t="s">
+      <c r="D269" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="E269" s="14" t="s">
+      <c r="E269" s="27" t="s">
         <v>897</v>
       </c>
-      <c r="F269" s="14" t="s">
+      <c r="F269" s="28" t="s">
         <v>926</v>
       </c>
     </row>
@@ -8129,47 +10165,49 @@
       <c r="A270" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C270" s="13">
+      <c r="B270" s="26"/>
+      <c r="C270" s="26">
         <v>429</v>
       </c>
-      <c r="D270" s="14" t="s">
+      <c r="D270" s="27" t="s">
         <v>868</v>
       </c>
-      <c r="E270" s="14" t="s">
+      <c r="E270" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="F270" s="14" t="s">
+      <c r="F270" s="28" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="47"/>
-      <c r="C271" s="13">
+      <c r="A271" s="25"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="26">
         <v>433</v>
       </c>
-      <c r="D271" s="14" t="s">
+      <c r="D271" s="27" t="s">
         <v>869</v>
       </c>
-      <c r="E271" s="14" t="s">
+      <c r="E271" s="27" t="s">
         <v>899</v>
       </c>
-      <c r="F271" s="14" t="s">
+      <c r="F271" s="28" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A272" s="31"/>
       <c r="B272" s="32"/>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="26" t="s">
         <v>871</v>
       </c>
-      <c r="D272" s="14" t="s">
+      <c r="D272" s="27" t="s">
         <v>870</v>
       </c>
-      <c r="E272" s="14" t="s">
+      <c r="E272" s="27" t="s">
         <v>900</v>
       </c>
-      <c r="F272" s="14" t="s">
+      <c r="F272" s="28" t="s">
         <v>929</v>
       </c>
     </row>
@@ -8177,50 +10215,3400 @@
       <c r="A273" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="C273" s="13">
+      <c r="B273" s="26"/>
+      <c r="C273" s="26">
         <v>473</v>
       </c>
-      <c r="D273" s="14" t="s">
+      <c r="D273" s="27" t="s">
         <v>872</v>
       </c>
-      <c r="E273" s="14" t="s">
+      <c r="E273" s="27" t="s">
         <v>901</v>
       </c>
-      <c r="F273" s="14" t="s">
+      <c r="F273" s="28" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="31"/>
       <c r="B274" s="32"/>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="D274" s="14" t="s">
+      <c r="D274" s="27" t="s">
         <v>873</v>
       </c>
-      <c r="E274" s="14" t="s">
+      <c r="E274" s="27" t="s">
         <v>902</v>
       </c>
-      <c r="F274" s="14" t="s">
+      <c r="F274" s="28" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="25" t="s">
+      <c r="A275" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="C275" s="13">
+      <c r="B275" s="19"/>
+      <c r="C275" s="19">
         <v>575</v>
       </c>
-      <c r="D275" s="14" t="s">
+      <c r="D275" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="E275" s="14" t="s">
+      <c r="E275" s="20" t="s">
         <v>903</v>
       </c>
-      <c r="F275" s="14" t="s">
+      <c r="F275" s="30" t="s">
         <v>932</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A276" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>933</v>
+      </c>
+      <c r="C276" s="26">
+        <v>21</v>
+      </c>
+      <c r="D276" s="27" t="s">
+        <v>934</v>
+      </c>
+      <c r="E276" s="27" t="s">
+        <v>989</v>
+      </c>
+      <c r="F276" s="28" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="31"/>
+      <c r="B277" s="32"/>
+      <c r="C277" s="26" t="s">
+        <v>936</v>
+      </c>
+      <c r="D277" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="E277" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="F277" s="28" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B278" s="26"/>
+      <c r="C278" s="26">
+        <v>99</v>
+      </c>
+      <c r="D278" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="E278" s="27" t="s">
+        <v>991</v>
+      </c>
+      <c r="F278" s="28" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="25"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="26">
+        <v>102</v>
+      </c>
+      <c r="D279" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="E279" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="F279" s="28" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="B280" s="26"/>
+      <c r="C280" s="26">
+        <v>135</v>
+      </c>
+      <c r="D280" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="E280" s="27" t="s">
+        <v>993</v>
+      </c>
+      <c r="F280" s="28" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="25"/>
+      <c r="B281" s="26"/>
+      <c r="C281" s="26">
+        <v>143</v>
+      </c>
+      <c r="D281" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="E281" s="27" t="s">
+        <v>994</v>
+      </c>
+      <c r="F281" s="28" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="25"/>
+      <c r="B282" s="26"/>
+      <c r="C282" s="26">
+        <v>159</v>
+      </c>
+      <c r="D282" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="E282" s="27" t="s">
+        <v>995</v>
+      </c>
+      <c r="F282" s="28" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="25"/>
+      <c r="B283" s="26"/>
+      <c r="C283" s="26">
+        <v>222</v>
+      </c>
+      <c r="D283" s="27" t="s">
+        <v>942</v>
+      </c>
+      <c r="E283" s="27" t="s">
+        <v>996</v>
+      </c>
+      <c r="F283" s="28" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B284" s="26"/>
+      <c r="C284" s="26">
+        <v>312</v>
+      </c>
+      <c r="D284" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="E284" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="F284" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="25"/>
+      <c r="B285" s="26"/>
+      <c r="C285" s="26">
+        <v>315</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="E285" s="27" t="s">
+        <v>998</v>
+      </c>
+      <c r="F285" s="28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B286" s="26"/>
+      <c r="C286" s="26">
+        <v>320</v>
+      </c>
+      <c r="D286" s="27" t="s">
+        <v>945</v>
+      </c>
+      <c r="E286" s="27" t="s">
+        <v>999</v>
+      </c>
+      <c r="F286" s="28" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B287" s="26"/>
+      <c r="C287" s="26">
+        <v>329</v>
+      </c>
+      <c r="D287" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="E287" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="F287" s="28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="31"/>
+      <c r="B288" s="32"/>
+      <c r="C288" s="26" t="s">
+        <v>947</v>
+      </c>
+      <c r="D288" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="E288" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F288" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B289" s="26"/>
+      <c r="C289" s="26">
+        <v>356</v>
+      </c>
+      <c r="D289" s="27" t="s">
+        <v>948</v>
+      </c>
+      <c r="E289" s="27" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F289" s="28" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="25"/>
+      <c r="B290" s="26"/>
+      <c r="C290" s="26">
+        <v>359</v>
+      </c>
+      <c r="D290" s="27" t="s">
+        <v>949</v>
+      </c>
+      <c r="E290" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F290" s="28" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="25"/>
+      <c r="B291" s="35"/>
+      <c r="C291" s="26" t="s">
+        <v>952</v>
+      </c>
+      <c r="D291" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="E291" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F291" s="28" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="25"/>
+      <c r="B292" s="32"/>
+      <c r="C292" s="26">
+        <v>372</v>
+      </c>
+      <c r="D292" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="E292" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F292" s="28" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="25"/>
+      <c r="B293" s="26"/>
+      <c r="C293" s="26">
+        <v>376</v>
+      </c>
+      <c r="D293" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="E293" s="27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F293" s="28" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="31"/>
+      <c r="B294" s="32"/>
+      <c r="C294" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="D294" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="E294" s="27" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F294" s="28" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A295" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B295" s="26"/>
+      <c r="C295" s="26">
+        <v>418</v>
+      </c>
+      <c r="D295" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="E295" s="27" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F295" s="28" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="25"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26">
+        <v>421</v>
+      </c>
+      <c r="D296" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="E296" s="27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F296" s="28" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B297" s="26"/>
+      <c r="C297" s="26">
+        <v>445</v>
+      </c>
+      <c r="D297" s="27" t="s">
+        <v>945</v>
+      </c>
+      <c r="E297" s="27" t="s">
+        <v>999</v>
+      </c>
+      <c r="F297" s="28" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B298" s="26"/>
+      <c r="C298" s="26">
+        <v>464</v>
+      </c>
+      <c r="D298" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="E298" s="27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F298" s="28" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B299" s="26"/>
+      <c r="C299" s="26">
+        <v>469</v>
+      </c>
+      <c r="D299" s="27" t="s">
+        <v>958</v>
+      </c>
+      <c r="E299" s="27" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F299" s="28" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="25"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="26">
+        <v>472</v>
+      </c>
+      <c r="D300" s="27" t="s">
+        <v>959</v>
+      </c>
+      <c r="E300" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F300" s="28" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="25"/>
+      <c r="B301" s="26"/>
+      <c r="C301" s="26">
+        <v>475</v>
+      </c>
+      <c r="D301" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="E301" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F301" s="28" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="25"/>
+      <c r="B302" s="26"/>
+      <c r="C302" s="26">
+        <v>478</v>
+      </c>
+      <c r="D302" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="E302" s="27" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F302" s="28" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="54"/>
+      <c r="B303" s="48"/>
+      <c r="C303" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="D303" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="E303" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F303" s="28" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A304" s="54"/>
+      <c r="B304" s="48"/>
+      <c r="C304" s="26" t="s">
+        <v>965</v>
+      </c>
+      <c r="D304" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E304" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F304" s="28" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B305" s="26"/>
+      <c r="C305" s="26">
+        <v>518</v>
+      </c>
+      <c r="D305" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="E305" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F305" s="28" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="25"/>
+      <c r="B306" s="26"/>
+      <c r="C306" s="26">
+        <v>521</v>
+      </c>
+      <c r="D306" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="E306" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F306" s="28" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A307" s="25"/>
+      <c r="B307" s="26"/>
+      <c r="C307" s="26">
+        <v>524</v>
+      </c>
+      <c r="D307" s="27" t="s">
+        <v>968</v>
+      </c>
+      <c r="E307" s="27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F307" s="28" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A308" s="54"/>
+      <c r="B308" s="48"/>
+      <c r="C308" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="D308" s="27" t="s">
+        <v>969</v>
+      </c>
+      <c r="E308" s="27" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F308" s="28" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="54"/>
+      <c r="B309" s="48"/>
+      <c r="C309" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="D309" s="27" t="s">
+        <v>971</v>
+      </c>
+      <c r="E309" s="27" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F309" s="28" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="54"/>
+      <c r="B310" s="48"/>
+      <c r="C310" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="D310" s="27" t="s">
+        <v>973</v>
+      </c>
+      <c r="E310" s="27" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F310" s="28" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="54"/>
+      <c r="B311" s="48"/>
+      <c r="C311" s="26" t="s">
+        <v>976</v>
+      </c>
+      <c r="D311" s="27" t="s">
+        <v>975</v>
+      </c>
+      <c r="E311" s="27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F311" s="28" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B312" s="26"/>
+      <c r="C312" s="26">
+        <v>582</v>
+      </c>
+      <c r="D312" s="27" t="s">
+        <v>977</v>
+      </c>
+      <c r="E312" s="27" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F312" s="28" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="25"/>
+      <c r="B313" s="26"/>
+      <c r="C313" s="26">
+        <v>585</v>
+      </c>
+      <c r="D313" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="E313" s="27" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F313" s="28" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="54"/>
+      <c r="B314" s="48"/>
+      <c r="C314" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="D314" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="E314" s="27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F314" s="28" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B315" s="26"/>
+      <c r="C315" s="26">
+        <v>613</v>
+      </c>
+      <c r="D315" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="E315" s="27" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F315" s="28" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="25"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="26">
+        <v>616</v>
+      </c>
+      <c r="D316" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="E316" s="27" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F316" s="28" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="25"/>
+      <c r="B317" s="26"/>
+      <c r="C317" s="26">
+        <v>619</v>
+      </c>
+      <c r="D317" s="27" t="s">
+        <v>983</v>
+      </c>
+      <c r="E317" s="27" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F317" s="28" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A318" s="25"/>
+      <c r="B318" s="26"/>
+      <c r="C318" s="26">
+        <v>622</v>
+      </c>
+      <c r="D318" s="27" t="s">
+        <v>984</v>
+      </c>
+      <c r="E318" s="27" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F318" s="28" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="54"/>
+      <c r="B319" s="48"/>
+      <c r="C319" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="D319" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="E319" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F319" s="28" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="56"/>
+      <c r="B320" s="57"/>
+      <c r="C320" s="19" t="s">
+        <v>988</v>
+      </c>
+      <c r="D320" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="E320" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F320" s="30" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="55" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B321" s="26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C321" s="26">
+        <v>13</v>
+      </c>
+      <c r="D321" s="27" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E321" s="27" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F321" s="28" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="58" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B322" s="26"/>
+      <c r="C322" s="26">
+        <v>16</v>
+      </c>
+      <c r="D322" s="27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E322" s="27" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F322" s="28" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A323" s="29"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="19">
+        <v>19</v>
+      </c>
+      <c r="D323" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E323" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F323" s="30" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A324" s="54"/>
+      <c r="B324" s="48" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C324" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D324" s="27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E324" s="27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F324" s="28" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="54"/>
+      <c r="B325" s="48"/>
+      <c r="C325" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D325" s="27" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E325" s="27" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F325" s="28" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B326" s="59"/>
+      <c r="C326" s="26">
+        <v>53</v>
+      </c>
+      <c r="D326" s="27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E326" s="27" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F326" s="28" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A327" s="25"/>
+      <c r="B327" s="48"/>
+      <c r="C327" s="26">
+        <v>57</v>
+      </c>
+      <c r="D327" s="27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E327" s="27" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F327" s="28" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A328" s="25"/>
+      <c r="B328" s="26"/>
+      <c r="C328" s="26">
+        <v>61</v>
+      </c>
+      <c r="D328" s="27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E328" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F328" s="28" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="25"/>
+      <c r="B329" s="26"/>
+      <c r="C329" s="26">
+        <v>64</v>
+      </c>
+      <c r="D329" s="27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E329" s="27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F329" s="28" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="25"/>
+      <c r="B330" s="26"/>
+      <c r="C330" s="26">
+        <v>67</v>
+      </c>
+      <c r="D330" s="27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E330" s="27" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F330" s="28" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A331" s="25"/>
+      <c r="B331" s="26"/>
+      <c r="C331" s="26">
+        <v>70</v>
+      </c>
+      <c r="D331" s="27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E331" s="27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F331" s="28" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A332" s="25"/>
+      <c r="B332" s="26"/>
+      <c r="C332" s="26">
+        <v>73</v>
+      </c>
+      <c r="D332" s="27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E332" s="27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F332" s="28" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="25"/>
+      <c r="B333" s="26"/>
+      <c r="C333" s="26">
+        <v>76</v>
+      </c>
+      <c r="D333" s="27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E333" s="27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F333" s="28" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="25"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="26">
+        <v>79</v>
+      </c>
+      <c r="D334" s="27" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E334" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F334" s="28" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="25"/>
+      <c r="B335" s="26"/>
+      <c r="C335" s="26">
+        <v>82</v>
+      </c>
+      <c r="D335" s="27" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E335" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F335" s="28" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="54"/>
+      <c r="B336" s="48"/>
+      <c r="C336" s="26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D336" s="27" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E336" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F336" s="28" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="54"/>
+      <c r="B337" s="26"/>
+      <c r="C337" s="26">
+        <v>103</v>
+      </c>
+      <c r="D337" s="27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E337" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F337" s="28" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A338" s="60"/>
+      <c r="B338" s="26"/>
+      <c r="C338" s="26">
+        <v>107</v>
+      </c>
+      <c r="D338" s="27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E338" s="27" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F338" s="28" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A339" s="54"/>
+      <c r="B339" s="48"/>
+      <c r="C339" s="26" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D339" s="27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E339" s="27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F339" s="28" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="54"/>
+      <c r="B340" s="48"/>
+      <c r="C340" s="26" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D340" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E340" s="27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F340" s="28" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A341" s="54"/>
+      <c r="B341" s="48"/>
+      <c r="C341" s="26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D341" s="27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E341" s="27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F341" s="28" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A342" s="54"/>
+      <c r="B342" s="48"/>
+      <c r="C342" s="26" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D342" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E342" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F342" s="28" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="54"/>
+      <c r="B343" s="26"/>
+      <c r="C343" s="26">
+        <v>155</v>
+      </c>
+      <c r="D343" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E343" s="27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F343" s="28" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="60"/>
+      <c r="B344" s="26"/>
+      <c r="C344" s="26">
+        <v>159</v>
+      </c>
+      <c r="D344" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E344" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F344" s="28" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B345" s="26"/>
+      <c r="C345" s="26">
+        <v>181</v>
+      </c>
+      <c r="D345" s="27" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E345" s="27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F345" s="28" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="25"/>
+      <c r="B346" s="26"/>
+      <c r="C346" s="26">
+        <v>184</v>
+      </c>
+      <c r="D346" s="27" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E346" s="27" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F346" s="28" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="25"/>
+      <c r="B347" s="26"/>
+      <c r="C347" s="26">
+        <v>187</v>
+      </c>
+      <c r="D347" s="27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E347" s="27" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F347" s="28" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A348" s="25"/>
+      <c r="B348" s="26"/>
+      <c r="C348" s="26">
+        <v>190</v>
+      </c>
+      <c r="D348" s="27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E348" s="27" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F348" s="28" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="25"/>
+      <c r="B349" s="26"/>
+      <c r="C349" s="26">
+        <v>193</v>
+      </c>
+      <c r="D349" s="27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E349" s="27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F349" s="28" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A350" s="25"/>
+      <c r="B350" s="26"/>
+      <c r="C350" s="26">
+        <v>196</v>
+      </c>
+      <c r="D350" s="27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E350" s="27" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F350" s="28" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A351" s="25"/>
+      <c r="B351" s="59"/>
+      <c r="C351" s="26">
+        <v>201</v>
+      </c>
+      <c r="D351" s="27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E351" s="27" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F351" s="28" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A352" s="25"/>
+      <c r="B352" s="48"/>
+      <c r="C352" s="26">
+        <v>205</v>
+      </c>
+      <c r="D352" s="27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E352" s="27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F352" s="28" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A353" s="25"/>
+      <c r="B353" s="59"/>
+      <c r="C353" s="26">
+        <v>211</v>
+      </c>
+      <c r="D353" s="27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E353" s="27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F353" s="28" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A354" s="25"/>
+      <c r="B354" s="48"/>
+      <c r="C354" s="26">
+        <v>215</v>
+      </c>
+      <c r="D354" s="27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E354" s="27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F354" s="28" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="25"/>
+      <c r="B355" s="26"/>
+      <c r="C355" s="26">
+        <v>219</v>
+      </c>
+      <c r="D355" s="27" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E355" s="27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F355" s="28" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="25"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="26" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D356" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E356" s="27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F356" s="28" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A357" s="25"/>
+      <c r="B357" s="32"/>
+      <c r="C357" s="26">
+        <v>232</v>
+      </c>
+      <c r="D357" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E357" s="27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F357" s="28" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="25"/>
+      <c r="B358" s="35"/>
+      <c r="C358" s="26" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D358" s="27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E358" s="27" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F358" s="28" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="25"/>
+      <c r="B359" s="32"/>
+      <c r="C359" s="26">
+        <v>246</v>
+      </c>
+      <c r="D359" s="27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E359" s="27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F359" s="28" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="25"/>
+      <c r="B360" s="26"/>
+      <c r="C360" s="26">
+        <v>250</v>
+      </c>
+      <c r="D360" s="27" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E360" s="27" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F360" s="28" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="25"/>
+      <c r="B361" s="26"/>
+      <c r="C361" s="26">
+        <v>253</v>
+      </c>
+      <c r="D361" s="27" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E361" s="27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F361" s="28" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A362" s="25"/>
+      <c r="B362" s="26"/>
+      <c r="C362" s="26">
+        <v>256</v>
+      </c>
+      <c r="D362" s="27" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E362" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F362" s="28" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A363" s="25"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="26" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D363" s="27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E363" s="27" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F363" s="28" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="25"/>
+      <c r="B364" s="32"/>
+      <c r="C364" s="26">
+        <v>269</v>
+      </c>
+      <c r="D364" s="27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E364" s="27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F364" s="28" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="25"/>
+      <c r="B365" s="35"/>
+      <c r="C365" s="26" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D365" s="27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E365" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F365" s="28" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="25"/>
+      <c r="B366" s="32"/>
+      <c r="C366" s="26">
+        <v>283</v>
+      </c>
+      <c r="D366" s="27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E366" s="27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F366" s="28" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="54"/>
+      <c r="B367" s="26"/>
+      <c r="C367" s="26">
+        <v>291</v>
+      </c>
+      <c r="D367" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E367" s="27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F367" s="28" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="60"/>
+      <c r="B368" s="26"/>
+      <c r="C368" s="26">
+        <v>295</v>
+      </c>
+      <c r="D368" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E368" s="27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F368" s="28" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="54"/>
+      <c r="B369" s="48"/>
+      <c r="C369" s="26" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D369" s="27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E369" s="27" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F369" s="28" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="54"/>
+      <c r="B370" s="48"/>
+      <c r="C370" s="26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D370" s="27" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E370" s="27" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F370" s="28" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="61"/>
+      <c r="B371" s="62"/>
+      <c r="C371" s="37" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D371" s="38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E371" s="38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F371" s="39" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B372" s="41" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C372" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D372" s="23" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E372" s="23" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F372" s="24" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A373" s="31"/>
+      <c r="B373" s="32"/>
+      <c r="C373" s="26" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D373" s="27" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E373" s="27" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F373" s="28" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A374" s="31"/>
+      <c r="B374" s="32"/>
+      <c r="C374" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="D374" s="27" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E374" s="27" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F374" s="28" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="49"/>
+      <c r="B375" s="26"/>
+      <c r="C375" s="26">
+        <v>89</v>
+      </c>
+      <c r="D375" s="27" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E375" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F375" s="28" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="45"/>
+      <c r="B376" s="46"/>
+      <c r="C376" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="D376" s="20" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E376" s="20" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F376" s="30" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A377" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B377" s="26" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C377" s="26">
+        <v>42</v>
+      </c>
+      <c r="D377" s="27" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E377" s="27" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F377" s="28" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A378" s="25"/>
+      <c r="B378" s="26"/>
+      <c r="C378" s="26">
+        <v>45</v>
+      </c>
+      <c r="D378" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E378" s="27" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F378" s="28" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B379" s="26"/>
+      <c r="C379" s="26">
+        <v>69</v>
+      </c>
+      <c r="D379" s="27" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E379" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F379" s="28" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="25"/>
+      <c r="B380" s="26"/>
+      <c r="C380" s="26">
+        <v>115</v>
+      </c>
+      <c r="D380" s="27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E380" s="27" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F380" s="28" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="54"/>
+      <c r="B381" s="48"/>
+      <c r="C381" s="26" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D381" s="27" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E381" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F381" s="28" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B382" s="26"/>
+      <c r="C382" s="26">
+        <v>167</v>
+      </c>
+      <c r="D382" s="27" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E382" s="27" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F382" s="28" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="54"/>
+      <c r="B383" s="48"/>
+      <c r="C383" s="26" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D383" s="27" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E383" s="27" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F383" s="28" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B384" s="26"/>
+      <c r="C384" s="26">
+        <v>252</v>
+      </c>
+      <c r="D384" s="27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E384" s="27" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F384" s="28" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="54"/>
+      <c r="B385" s="48"/>
+      <c r="C385" s="26" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D385" s="27" t="s">
+        <v>975</v>
+      </c>
+      <c r="E385" s="27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F385" s="28" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B386" s="59"/>
+      <c r="C386" s="26">
+        <v>278</v>
+      </c>
+      <c r="D386" s="27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E386" s="27" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F386" s="28" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A387" s="25"/>
+      <c r="B387" s="48"/>
+      <c r="C387" s="26">
+        <v>282</v>
+      </c>
+      <c r="D387" s="27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E387" s="27" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F387" s="28" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="25"/>
+      <c r="B388" s="26"/>
+      <c r="C388" s="26">
+        <v>286</v>
+      </c>
+      <c r="D388" s="27" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E388" s="27" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F388" s="28" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="25"/>
+      <c r="B389" s="26"/>
+      <c r="C389" s="26">
+        <v>289</v>
+      </c>
+      <c r="D389" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E389" s="27" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F389" s="28" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B390" s="26"/>
+      <c r="C390" s="26">
+        <v>313</v>
+      </c>
+      <c r="D390" s="27" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E390" s="27" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F390" s="28" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B391" s="26"/>
+      <c r="C391" s="26">
+        <v>362</v>
+      </c>
+      <c r="D391" s="27" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E391" s="27" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F391" s="28" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B392" s="26"/>
+      <c r="C392" s="26">
+        <v>367</v>
+      </c>
+      <c r="D392" s="27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E392" s="27" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F392" s="28" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="25"/>
+      <c r="B393" s="26"/>
+      <c r="C393" s="26">
+        <v>370</v>
+      </c>
+      <c r="D393" s="27" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E393" s="27" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F393" s="28" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="25"/>
+      <c r="B394" s="26"/>
+      <c r="C394" s="26">
+        <v>373</v>
+      </c>
+      <c r="D394" s="27" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E394" s="27" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F394" s="28" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B395" s="26"/>
+      <c r="C395" s="26">
+        <v>382</v>
+      </c>
+      <c r="D395" s="27" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E395" s="27" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F395" s="28" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="54"/>
+      <c r="B396" s="48"/>
+      <c r="C396" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="D396" s="27" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E396" s="27" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F396" s="28" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A397" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B397" s="26"/>
+      <c r="C397" s="26">
+        <v>409</v>
+      </c>
+      <c r="D397" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E397" s="27" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F397" s="28" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B398" s="26"/>
+      <c r="C398" s="26">
+        <v>447</v>
+      </c>
+      <c r="D398" s="27" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E398" s="27" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F398" s="28" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="54"/>
+      <c r="B399" s="48"/>
+      <c r="C399" s="26" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D399" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E399" s="27" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F399" s="28" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A400" s="31"/>
+      <c r="B400" s="32"/>
+      <c r="C400" s="26" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D400" s="27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E400" s="27" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F400" s="28" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="31"/>
+      <c r="B401" s="32"/>
+      <c r="C401" s="26" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D401" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E401" s="27" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F401" s="28" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26">
+        <v>519</v>
+      </c>
+      <c r="D402" s="27" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E402" s="27" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F402" s="28" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A403" s="25"/>
+      <c r="B403" s="26"/>
+      <c r="C403" s="26">
+        <v>522</v>
+      </c>
+      <c r="D403" s="27" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E403" s="27" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F403" s="28" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="31"/>
+      <c r="B404" s="32"/>
+      <c r="C404" s="26" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D404" s="27" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E404" s="27" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F404" s="28" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B405" s="26"/>
+      <c r="C405" s="26">
+        <v>549</v>
+      </c>
+      <c r="D405" s="27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E405" s="27" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F405" s="28" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="25"/>
+      <c r="B406" s="59"/>
+      <c r="C406" s="26">
+        <v>554</v>
+      </c>
+      <c r="D406" s="27" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E406" s="27" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F406" s="28" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="25"/>
+      <c r="B407" s="48"/>
+      <c r="C407" s="26">
+        <v>558</v>
+      </c>
+      <c r="D407" s="27" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E407" s="27" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F407" s="28" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="31" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B408" s="32"/>
+      <c r="C408" s="26" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D408" s="27" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E408" s="27" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F408" s="28" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A409" s="31"/>
+      <c r="B409" s="32"/>
+      <c r="C409" s="26" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D409" s="27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E409" s="27" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F409" s="28" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A410" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26">
+        <v>590</v>
+      </c>
+      <c r="D410" s="27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E410" s="27" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F410" s="28" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="25"/>
+      <c r="B411" s="26"/>
+      <c r="C411" s="26">
+        <v>593</v>
+      </c>
+      <c r="D411" s="27" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E411" s="27" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F411" s="28" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B412" s="26"/>
+      <c r="C412" s="26">
+        <v>601</v>
+      </c>
+      <c r="D412" s="27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E412" s="27" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F412" s="28" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B413" s="26"/>
+      <c r="C413" s="26">
+        <v>609</v>
+      </c>
+      <c r="D413" s="27" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E413" s="27" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F413" s="28" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="25"/>
+      <c r="B414" s="26"/>
+      <c r="C414" s="26">
+        <v>614</v>
+      </c>
+      <c r="D414" s="27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E414" s="27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F414" s="28" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" s="25"/>
+      <c r="B415" s="26"/>
+      <c r="C415" s="26">
+        <v>628</v>
+      </c>
+      <c r="D415" s="27" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E415" s="27" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F415" s="28" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="25"/>
+      <c r="B416" s="26"/>
+      <c r="C416" s="26">
+        <v>631</v>
+      </c>
+      <c r="D416" s="27" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E416" s="27" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F416" s="28" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="25"/>
+      <c r="B417" s="26"/>
+      <c r="C417" s="26">
+        <v>634</v>
+      </c>
+      <c r="D417" s="27" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E417" s="27" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F417" s="28" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" s="54"/>
+      <c r="B418" s="48"/>
+      <c r="C418" s="26" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D418" s="27" t="s">
+        <v>975</v>
+      </c>
+      <c r="E418" s="27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F418" s="28" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A419" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B419" s="26"/>
+      <c r="C419" s="26">
+        <v>661</v>
+      </c>
+      <c r="D419" s="27" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E419" s="27" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F419" s="28" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B420" s="26"/>
+      <c r="C420" s="26">
+        <v>703</v>
+      </c>
+      <c r="D420" s="27" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E420" s="27" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F420" s="28" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="31"/>
+      <c r="B421" s="32"/>
+      <c r="C421" s="26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D421" s="27" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E421" s="27" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F421" s="28" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="54"/>
+      <c r="B422" s="48"/>
+      <c r="C422" s="26" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D422" s="27" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E422" s="27" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F422" s="28" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="31"/>
+      <c r="B423" s="32"/>
+      <c r="C423" s="26" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D423" s="27" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E423" s="27" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F423" s="28" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" s="54"/>
+      <c r="B424" s="48"/>
+      <c r="C424" s="26" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D424" s="27" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E424" s="27" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F424" s="28" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="54"/>
+      <c r="B425" s="48"/>
+      <c r="C425" s="26" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D425" s="27" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E425" s="27" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F425" s="28" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="54"/>
+      <c r="B426" s="48"/>
+      <c r="C426" s="26" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D426" s="27" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E426" s="27" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F426" s="28" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="31"/>
+      <c r="B427" s="32"/>
+      <c r="C427" s="26" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D427" s="27" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E427" s="27" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F427" s="28" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" s="31"/>
+      <c r="B428" s="32"/>
+      <c r="C428" s="26" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D428" s="27" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E428" s="27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F428" s="28" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="31"/>
+      <c r="B429" s="26"/>
+      <c r="C429" s="26">
+        <v>858</v>
+      </c>
+      <c r="D429" s="27" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E429" s="27" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F429" s="28" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="31"/>
+      <c r="B430" s="26"/>
+      <c r="C430" s="26">
+        <v>862</v>
+      </c>
+      <c r="D430" s="27" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E430" s="27" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F430" s="28" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="65"/>
+      <c r="B431" s="26"/>
+      <c r="C431" s="26">
+        <v>866</v>
+      </c>
+      <c r="D431" s="27" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E431" s="27" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F431" s="28" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="31"/>
+      <c r="B432" s="26"/>
+      <c r="C432" s="26">
+        <v>872</v>
+      </c>
+      <c r="D432" s="27" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E432" s="27" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F432" s="28" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A433" s="31"/>
+      <c r="B433" s="26"/>
+      <c r="C433" s="26">
+        <v>876</v>
+      </c>
+      <c r="D433" s="27" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E433" s="27" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F433" s="28" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A434" s="65"/>
+      <c r="B434" s="26"/>
+      <c r="C434" s="26">
+        <v>880</v>
+      </c>
+      <c r="D434" s="27" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E434" s="27" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F434" s="28" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" s="31"/>
+      <c r="B435" s="32"/>
+      <c r="C435" s="26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D435" s="27" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E435" s="27" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F435" s="28" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="54"/>
+      <c r="B436" s="48"/>
+      <c r="C436" s="26" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D436" s="27" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E436" s="27" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F436" s="28" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="54"/>
+      <c r="B437" s="48"/>
+      <c r="C437" s="26" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D437" s="27" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E437" s="27" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F437" s="28" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A438" s="54"/>
+      <c r="B438" s="48"/>
+      <c r="C438" s="26" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D438" s="27" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E438" s="27" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F438" s="28" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="54"/>
+      <c r="B439" s="48"/>
+      <c r="C439" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D439" s="27" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E439" s="27" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F439" s="28" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="54"/>
+      <c r="B440" s="26"/>
+      <c r="C440" s="26">
+        <v>943</v>
+      </c>
+      <c r="D440" s="27" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E440" s="27" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F440" s="28" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A441" s="60"/>
+      <c r="B441" s="26"/>
+      <c r="C441" s="26">
+        <v>947</v>
+      </c>
+      <c r="D441" s="27" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E441" s="27" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F441" s="28" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="31"/>
+      <c r="B442" s="32"/>
+      <c r="C442" s="26" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D442" s="27" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E442" s="27" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F442" s="28" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" s="31"/>
+      <c r="B443" s="32"/>
+      <c r="C443" s="26" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D443" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E443" s="27" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F443" s="28" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A444" s="31"/>
+      <c r="B444" s="32"/>
+      <c r="C444" s="26" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D444" s="27" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E444" s="27" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F444" s="28" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A445" s="31"/>
+      <c r="B445" s="32"/>
+      <c r="C445" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D445" s="27" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E445" s="27" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F445" s="28" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A446" s="31"/>
+      <c r="B446" s="32"/>
+      <c r="C446" s="26" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D446" s="27" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E446" s="27" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F446" s="28" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A447" s="31"/>
+      <c r="B447" s="32"/>
+      <c r="C447" s="26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D447" s="27" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E447" s="27" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F447" s="28" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A448" s="31"/>
+      <c r="B448" s="32"/>
+      <c r="C448" s="26" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D448" s="27" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E448" s="27" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F448" s="28" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" s="54"/>
+      <c r="B449" s="48"/>
+      <c r="C449" s="26" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D449" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E449" s="27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F449" s="28" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" s="54"/>
+      <c r="B450" s="48"/>
+      <c r="C450" s="26" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D450" s="27" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E450" s="27" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F450" s="28" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" s="56"/>
+      <c r="B451" s="57"/>
+      <c r="C451" s="19">
+        <v>33</v>
+      </c>
+      <c r="D451" s="20" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E451" s="20" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F451" s="30" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A452" s="55" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B452" s="26" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C452" s="26">
+        <v>17</v>
+      </c>
+      <c r="D452" s="27" t="s">
+        <v>959</v>
+      </c>
+      <c r="E452" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F452" s="28" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B453" s="26"/>
+      <c r="C453" s="26">
+        <v>20</v>
+      </c>
+      <c r="D453" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="E453" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F453" s="28" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A454" s="29"/>
+      <c r="B454" s="19"/>
+      <c r="C454" s="19">
+        <v>23</v>
+      </c>
+      <c r="D454" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="E454" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F454" s="30" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A455" s="54"/>
+      <c r="B455" s="48" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C455" s="26" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D455" s="27" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E455" s="27" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F455" s="28" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="54"/>
+      <c r="B456" s="48"/>
+      <c r="C456" s="26" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D456" s="27" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E456" s="27" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F456" s="28" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" s="54"/>
+      <c r="B457" s="48"/>
+      <c r="C457" s="26" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D457" s="27" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E457" s="27" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F457" s="28" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" s="31"/>
+      <c r="B458" s="32"/>
+      <c r="C458" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="D458" s="27" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E458" s="27" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F458" s="28" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A459" s="45"/>
+      <c r="B459" s="46"/>
+      <c r="C459" s="19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D459" s="20" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E459" s="20" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F459" s="30" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A460" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="B460" s="63" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C460" s="63">
+        <v>30</v>
+      </c>
+      <c r="D460" s="64" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E460" s="64" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F460" s="67" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A461" s="31"/>
+      <c r="B461" s="32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C461" s="26" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D461" s="27" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E461" s="27" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F461" s="28" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A462" s="31"/>
+      <c r="B462" s="32"/>
+      <c r="C462" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D462" s="27" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E462" s="27" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F462" s="28" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A463" s="31"/>
+      <c r="B463" s="32"/>
+      <c r="C463" s="26" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D463" s="27" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E463" s="27" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F463" s="28" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A464" s="31"/>
+      <c r="B464" s="32"/>
+      <c r="C464" s="26" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D464" s="27" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E464" s="27" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F464" s="28" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" s="54"/>
+      <c r="B465" s="48"/>
+      <c r="C465" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D465" s="27" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E465" s="27" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F465" s="28" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" s="54"/>
+      <c r="B466" s="48"/>
+      <c r="C466" s="26" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D466" s="27" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E466" s="27" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F466" s="28" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" s="54"/>
+      <c r="B467" s="48"/>
+      <c r="C467" s="26" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D467" s="27" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E467" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F467" s="28" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="54"/>
+      <c r="B468" s="48"/>
+      <c r="C468" s="26" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D468" s="27" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E468" s="27" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F468" s="28" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" s="54"/>
+      <c r="B469" s="48"/>
+      <c r="C469" s="35" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D469" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E469" s="27" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F469" s="28" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" s="54"/>
+      <c r="B470" s="48"/>
+      <c r="C470" s="32">
+        <v>135</v>
+      </c>
+      <c r="D470" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E470" s="27" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F470" s="28" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A471" s="54"/>
+      <c r="B471" s="48"/>
+      <c r="C471" s="35" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D471" s="27" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E471" s="27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F471" s="28" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A472" s="54"/>
+      <c r="B472" s="48"/>
+      <c r="C472" s="32">
+        <v>149</v>
+      </c>
+      <c r="D472" s="27" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E472" s="27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F472" s="28" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="54"/>
+      <c r="B473" s="48"/>
+      <c r="C473" s="26" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D473" s="27" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E473" s="27" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F473" s="28" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A474" s="54"/>
+      <c r="B474" s="48"/>
+      <c r="C474" s="35" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D474" s="27" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E474" s="27" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F474" s="28" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A475" s="54"/>
+      <c r="B475" s="48"/>
+      <c r="C475" s="32">
+        <v>173</v>
+      </c>
+      <c r="D475" s="27" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E475" s="27" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F475" s="28" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" s="54"/>
+      <c r="B476" s="48"/>
+      <c r="C476" s="26" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D476" s="27" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E476" s="27" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F476" s="28" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A477" s="31"/>
+      <c r="B477" s="32"/>
+      <c r="C477" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="D477" s="27" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E477" s="27" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F477" s="28" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="43"/>
+      <c r="B478" s="44"/>
+      <c r="C478" s="37" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D478" s="38" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E478" s="38" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F478" s="39" t="s">
+        <v>1578</v>
       </c>
     </row>
   </sheetData>
